--- a/data/CS4/case9/case9_2035.xlsx
+++ b/data/CS4/case9/case9_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8046D85A-821C-4761-962E-7CDB8D6CA7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F29CE0-7FDE-44A9-8331-A07DAB33CEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46215" yWindow="-5550" windowWidth="13845" windowHeight="7980" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="-14280" windowWidth="19410" windowHeight="20985" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
